--- a/src/test/resources/TestData/dsalgo.xlsx
+++ b/src/test/resources/TestData/dsalgo.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arunm\git\ds_algo_ninjaricos\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925BA8E9-1B8F-49C9-BD1C-BDFD35871166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
     <sheet name="SignIn" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="PythonCode" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>username</t>
   </si>
@@ -44,13 +50,155 @@
   <si>
     <t xml:space="preserve">
 Secret123#</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>PythonCode</t>
+  </si>
+  <si>
+    <t>print("DSAlgo");</t>
+  </si>
+  <si>
+    <t>DSAlgo</t>
+  </si>
+  <si>
+    <t>NumpyNinja</t>
+  </si>
+  <si>
+    <t>print("NumpyNinja</t>
+  </si>
+  <si>
+    <t>grocery = ["apples", "bananas", "cucumbers", "dates", "strawberries"]
+grocery.append("oranges")
+print (grocery);</t>
+  </si>
+  <si>
+    <t>['apples', 'bananas', 'cucumbers', 'dates', 'strawberries', 'oranges']</t>
+  </si>
+  <si>
+    <t>NameError: name 'apples' is not defined on line 3</t>
+  </si>
+  <si>
+    <t>grocery = ["apples", "bananas", "cucumbers", "dates", "strawberries"]
+grocery.append("oranges")
+print[apples]</t>
+  </si>
+  <si>
+    <t>grocery = ["apples", "banana", "cucumbers", "dates","strawberries"]
+grocery.insert(2, "carrots")
+print (grocery);</t>
+  </si>
+  <si>
+    <t>['apples', 'banana', 'carrots', 'cucumbers', 'dates', 'strawberries']</t>
+  </si>
+  <si>
+    <t>NameError: name 'Walnuts' is not defined on line 2</t>
+  </si>
+  <si>
+    <t>grocery = ["apples", "banana", "cucumbers", "dates","strawberries"]
+grocery.insert(10, Walnuts)
+print (grocery);</t>
+  </si>
+  <si>
+    <t>[['Ann', 'Ben', 'Cathy', 'Daisy', 'Snow', 'Bob']]</t>
+  </si>
+  <si>
+    <t>employee = ["Ann", "Ben", "Cathy", "Daisy", "Snow"]
+employee.append("Bob")
+print[employee]</t>
+  </si>
+  <si>
+    <t>employee = ["Ann", "Ben", "Cathy", "Daisy", "Snow"]
+employee.append("Bob")
+print[employee</t>
+  </si>
+  <si>
+    <t>Element Found</t>
+  </si>
+  <si>
+    <t>def search(input_list, num):
+if(num in input_list):
+print("Element Found")
+\b
+\b
+else:
+print("Not Found")
+\b
+\b
+\b
+\b
+search([12, 23, 45, 67, 6, 90] , 12)</t>
+  </si>
+  <si>
+    <t>SyntaxError: EOF in multi-line statement on line 4</t>
+  </si>
+  <si>
+    <t>def findMaxConsecutiveOnes(nums) :
+count = 0
+result = 0
+for i in range(0, len(nums)):
+if (nums[i] == 0):
+count = 0
+\b
+\b
+else:
+count+= 1
+\b
+\b
+result = max(result, count)
+\b
+\b
+print(result)
+\b
+\b
+findMaxConsecutiveOnes([1,0,1,1,0,1])</t>
+  </si>
+  <si>
+    <t>submission success</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>def sortedSquares(nums):
+squares_list = []
+for i in range(0, len(nums)):
+square = nums[i] * nums[i];
+squares_list.append(square)
+\b
+\b
+sorted_squares_list = sorted(squares_list)
+print sorted_squares_list;
+return sorted_squares_list;
+sortedSquares([-7,-3,2,3,11])</t>
+  </si>
+  <si>
+    <t>[4, 9, 9, 49, 121]</t>
+  </si>
+  <si>
+    <t>def findNumbers(nums):
+c=0
+for i in nums:
+j=str(i)
+x=len(j)
+if x%2==0:
+c=c+1
+\b
+\b
+\b
+\b
+print c
+return c
+findNumbers([12,345,2,6,7896])</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,13 +206,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -76,20 +243,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{26EB06D6-9B8E-4875-8F08-1E4DAE11F871}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -136,7 +331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,9 +363,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,6 +415,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -377,20 +608,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.21875" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -412,7 +643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -429,20 +660,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8">
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -464,13 +695,157 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="205.21875" customWidth="1"/>
+    <col min="2" max="2" width="62.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/dsalgo.xlsx
+++ b/src/test/resources/TestData/dsalgo.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arunm\git\ds_algo_ninjaricos\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925BA8E9-1B8F-49C9-BD1C-BDFD35871166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>username</t>
   </si>
@@ -193,12 +187,24 @@
 return c
 findNumbers([12,345,2,6,7896])</t>
   </si>
+  <si>
+    <t>Numpy</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>numpy</t>
+  </si>
+  <si>
+    <t>ninja5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,7 +279,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{26EB06D6-9B8E-4875-8F08-1E4DAE11F871}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,7 +337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,27 +369,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,24 +403,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -608,20 +578,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="13.21875" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -632,7 +602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -643,7 +613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -652,6 +622,28 @@
       </c>
       <c r="C3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -660,20 +652,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="28.8">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -695,20 +687,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="205.21875" customWidth="1"/>
     <col min="2" max="2" width="62.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -716,7 +708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -724,7 +716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -732,7 +724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="43.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -740,7 +732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="43.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -748,7 +740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="43.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -756,7 +748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="43.2">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -764,7 +756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="43.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -772,7 +764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="43.2">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -780,7 +772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -788,7 +780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -796,7 +788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -804,7 +796,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -812,7 +804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
         <v>34</v>
       </c>
@@ -820,7 +812,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
         <v>34</v>
       </c>
@@ -828,7 +820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
@@ -836,7 +828,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
         <v>32</v>
       </c>
